--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>Вопросы (Развилка)</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Добавление пользователей в личном кабинете(ЛК)</t>
   </si>
   <si>
-    <t>Изменение реквизитовСмена наименования</t>
-  </si>
-  <si>
     <t>Сертификат не добавляется в браузер</t>
   </si>
   <si>
@@ -219,13 +216,82 @@
     <t>Продление срока представления отчетности</t>
   </si>
   <si>
-    <t>XSD-схема машиночитаемой доверенности(МЧД)</t>
-  </si>
-  <si>
-    <t>Схемы электронных форм (XSD)</t>
-  </si>
-  <si>
     <t>Справочник адресатов</t>
+  </si>
+  <si>
+    <t>Аннулирование УКЭП</t>
+  </si>
+  <si>
+    <t>обезличенный сертификат</t>
+  </si>
+  <si>
+    <t>Процедуры допуска на финансовый рынок через REST-API </t>
+  </si>
+  <si>
+    <t>Изменение реквизитов</t>
+  </si>
+  <si>
+    <t>Смена наименования</t>
+  </si>
+  <si>
+    <t>как использовать REST-API сервис ?</t>
+  </si>
+  <si>
+    <t>ПО для работы с REST-API</t>
+  </si>
+  <si>
+    <t>Актуальная версия Дельты</t>
+  </si>
+  <si>
+    <t>Описания структуры запросов REST-API</t>
+  </si>
+  <si>
+    <t>Как скачать с хранилища мчд?</t>
+  </si>
+  <si>
+    <t>Перевыпуск УКЭП</t>
+  </si>
+  <si>
+    <t>Прекращение действия УКЭП</t>
+  </si>
+  <si>
+    <t>Получение УКЭП онлайн</t>
+  </si>
+  <si>
+    <t>Реестр УКЭП</t>
+  </si>
+  <si>
+    <t>активация ЛК с УКЭП ФЛ</t>
+  </si>
+  <si>
+    <t>Сколько УКЭП можно использовать</t>
+  </si>
+  <si>
+    <t>Обезличенный сертификат УКЭП?</t>
+  </si>
+  <si>
+    <t>Статус МЧД после аннулирования УКЭП</t>
+  </si>
+  <si>
+    <t>смена реквизитов и перевыпуск УКЭП?</t>
+  </si>
+  <si>
+    <t>Существует ли квота на хранение документов</t>
+  </si>
+  <si>
+    <t>Превышена квота дискового пространства</t>
+  </si>
+  <si>
+    <t>очистка дискового пространства в ЛК</t>
+  </si>
+  <si>
+    <t>Невозможно удалить файлы для увеличения квоты</t>
+  </si>
+  <si>
+    <t>Удаление сообщений из раздела "Электронный документ"</t>
+  </si>
+  <si>
+    <t>Сколько стоит получение УКЭП?</t>
   </si>
 </sst>
 </file>
@@ -564,19 +630,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -584,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -592,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -600,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -608,23 +674,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -632,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -640,7 +706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -648,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -656,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -664,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -672,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -680,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -688,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -696,7 +762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -704,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -712,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -720,7 +786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -728,7 +794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -736,7 +802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -744,7 +810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -752,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -760,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -768,7 +834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -776,7 +842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -784,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -792,7 +858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -800,7 +866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -808,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -816,7 +882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -824,7 +890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -832,7 +898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -840,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -848,7 +914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -856,7 +922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -864,7 +930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -872,7 +938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -880,7 +946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -888,7 +954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -896,7 +962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -904,7 +970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -912,23 +978,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -936,135 +1002,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1072,44 +1138,228 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
       <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -123,12 +123,6 @@
     <t>Количество пользователей в личном кабинете (ЛК)</t>
   </si>
   <si>
-    <t>Возможности личного кабинета (ЛК)</t>
-  </si>
-  <si>
-    <t>Возможность подачи бумажной отчетности</t>
-  </si>
-  <si>
     <t>Центр по обработке отчетности</t>
   </si>
   <si>
@@ -150,39 +144,18 @@
     <t>Как войти в Личный кабинет (ЛК)</t>
   </si>
   <si>
-    <t>Смена пароля в в личном кабинете (ЛК)</t>
-  </si>
-  <si>
     <t>Как восстановить доступ к личному кабинету(ЛК)</t>
   </si>
   <si>
-    <t>Добавление пользователей в личном кабинете(ЛК)</t>
-  </si>
-  <si>
-    <t>Сертификат не добавляется в браузер</t>
-  </si>
-  <si>
-    <t>СКЗИ в личном кабинете(ЛК)</t>
-  </si>
-  <si>
     <t>Истек срок лицензии криптографического ПО</t>
   </si>
   <si>
-    <t>Исправить ошибку «Сертификат не найден»</t>
-  </si>
-  <si>
-    <t>Ошибке загрузки электронного документа</t>
-  </si>
-  <si>
     <t>Причины отказа в регистрации документа</t>
   </si>
   <si>
     <t>Как отправить письмо в адрес Банка России</t>
   </si>
   <si>
-    <t>Как отправить письмо при отсутствии точного адресата</t>
-  </si>
-  <si>
     <t>Как отправить сообщение, размер которого больше допустимого</t>
   </si>
   <si>
@@ -216,24 +189,15 @@
     <t>Продление срока представления отчетности</t>
   </si>
   <si>
-    <t>Справочник адресатов</t>
-  </si>
-  <si>
     <t>Аннулирование УКЭП</t>
   </si>
   <si>
-    <t>обезличенный сертификат</t>
-  </si>
-  <si>
     <t>Процедуры допуска на финансовый рынок через REST-API </t>
   </si>
   <si>
     <t>Изменение реквизитов</t>
   </si>
   <si>
-    <t>Смена наименования</t>
-  </si>
-  <si>
     <t>как использовать REST-API сервис ?</t>
   </si>
   <si>
@@ -292,6 +256,43 @@
   </si>
   <si>
     <t>Сколько стоит получение УКЭП?</t>
+  </si>
+  <si>
+    <t>Возможности личного кабинета</t>
+  </si>
+  <si>
+    <t>Может ли пользователь самостоятельно изменить свой пароль?</t>
+  </si>
+  <si>
+    <t>Сертификат УКЭП не добавляется в браузер</t>
+  </si>
+  <si>
+    <t>ошибка «Адресат не найден»</t>
+  </si>
+  <si>
+    <t>ошибка загрузки электронного документа</t>
+  </si>
+  <si>
+    <t>Как отправить письмо нескольким адресатам</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Раздел «Профиль»</t>
+  </si>
+  <si>
+    <t>Подраздел «Общие сведения»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подраздел «Пользователи»
+</t>
+  </si>
+  <si>
+    <t>добавление новых пользователей</t>
+  </si>
+  <si>
+    <t>удаление пользователя?</t>
+  </si>
+  <si>
+    <t>разблокировка пользователя?</t>
   </si>
 </sst>
 </file>
@@ -315,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -323,33 +324,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,25 +612,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -666,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -674,7 +653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -682,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -690,15 +669,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -706,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -714,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -722,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -730,15 +709,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -746,143 +725,143 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -890,7 +869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -898,7 +877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -906,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -914,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -922,7 +901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -930,7 +909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -938,383 +917,383 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1301,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1309,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1317,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1325,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1333,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>

--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
   <si>
     <t>Вопросы (Развилка)</t>
   </si>
@@ -238,15 +238,6 @@
   </si>
   <si>
     <t>смена реквизитов и перевыпуск УКЭП?</t>
-  </si>
-  <si>
-    <t>Существует ли квота на хранение документов</t>
-  </si>
-  <si>
-    <t>Превышена квота дискового пространства</t>
-  </si>
-  <si>
-    <t>очистка дискового пространства в ЛК</t>
   </si>
   <si>
     <t>Невозможно удалить файлы для увеличения квоты</t>
@@ -289,10 +280,52 @@
     <t>добавление новых пользователей</t>
   </si>
   <si>
-    <t>удаление пользователя?</t>
-  </si>
-  <si>
-    <t>разблокировка пользователя?</t>
+    <t>удаление пользователя</t>
+  </si>
+  <si>
+    <t>разблокировка пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подготовка пакета отчётности в формате XBRL</t>
+  </si>
+  <si>
+    <t>ошибка 4080: ИНН ЛК и сертификата не совпадает</t>
+  </si>
+  <si>
+    <t>Где получить УКЭП физического лица?</t>
+  </si>
+  <si>
+    <t>Цепочка передоверия</t>
+  </si>
+  <si>
+    <t>Тестовый личный кабинет (ЛК)</t>
+  </si>
+  <si>
+    <t>Недейсвительная доверенность (МЧД)</t>
+  </si>
+  <si>
+    <t>Доверенность, выдаваемая в порядке передоверия</t>
+  </si>
+  <si>
+    <t>Ликвидация организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прикрепления МЧД (цепочки МЧД) </t>
+  </si>
+  <si>
+    <t>Нужно ли заверять у нотариуса МЧД?</t>
+  </si>
+  <si>
+    <t>Нотариальное удостоверение</t>
+  </si>
+  <si>
+    <t>Увеличение квоты (очистка дискового пространства в ЛК)</t>
+  </si>
+  <si>
+    <t>Увеличение квоты (превышена квота дискового пространства)</t>
+  </si>
+  <si>
+    <t>Увеличение квоты (Существует ли квота на хранение документов)</t>
   </si>
 </sst>
 </file>
@@ -308,15 +341,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -324,12 +369,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -610,26 +691,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -637,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -645,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -653,7 +735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -661,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -669,679 +751,768 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>Вопросы (Развилка)</t>
   </si>
@@ -286,9 +286,6 @@
     <t>разблокировка пользователя</t>
   </si>
   <si>
-    <t xml:space="preserve"> Подготовка пакета отчётности в формате XBRL</t>
-  </si>
-  <si>
     <t>ошибка 4080: ИНН ЛК и сертификата не совпадает</t>
   </si>
   <si>
@@ -319,13 +316,13 @@
     <t>Нотариальное удостоверение</t>
   </si>
   <si>
-    <t>Увеличение квоты (очистка дискового пространства в ЛК)</t>
-  </si>
-  <si>
-    <t>Увеличение квоты (превышена квота дискового пространства)</t>
-  </si>
-  <si>
-    <t>Увеличение квоты (Существует ли квота на хранение документов)</t>
+    <t>Увеличение квоты - Существует ли квота на хранение документов?</t>
+  </si>
+  <si>
+    <t>Увеличение квоты - Превышена квота дискового пространства</t>
+  </si>
+  <si>
+    <t>Увеличение квоты - Очистка дискового пространства в ЛК</t>
   </si>
 </sst>
 </file>
@@ -341,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,17 +391,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -691,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +986,7 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1179,7 +1162,7 @@
       <c r="A60" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1323,24 +1306,24 @@
       <c r="A78" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>101</v>
+      <c r="B78" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>100</v>
+      <c r="B79" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>99</v>
+      <c r="B80" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1354,7 @@
       <c r="A84" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1379,7 +1362,7 @@
       <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1387,7 +1370,7 @@
       <c r="A86" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1395,7 +1378,7 @@
       <c r="A87" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1403,7 +1386,7 @@
       <c r="A88" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1411,7 +1394,7 @@
       <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1419,7 +1402,7 @@
       <c r="A90" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1427,7 +1410,7 @@
       <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1435,7 +1418,7 @@
       <c r="A92" t="s">
         <v>0</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1443,7 +1426,7 @@
       <c r="A93" t="s">
         <v>0</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1451,7 +1434,7 @@
       <c r="A94" t="s">
         <v>0</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1459,7 +1442,7 @@
       <c r="A95" t="s">
         <v>0</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1467,7 +1450,7 @@
       <c r="A96" t="s">
         <v>0</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1475,7 +1458,7 @@
       <c r="A97" t="s">
         <v>0</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1483,7 +1466,7 @@
       <c r="A98" t="s">
         <v>0</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1491,7 +1474,7 @@
       <c r="A99" t="s">
         <v>0</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1499,16 +1482,8 @@
       <c r="A100" t="s">
         <v>0</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
   <si>
     <t>Вопросы (Развилка)</t>
   </si>
@@ -323,6 +323,45 @@
   </si>
   <si>
     <t>Увеличение квоты - Очистка дискового пространства в ЛК</t>
+  </si>
+  <si>
+    <t>Как представить отчетность ФСН?</t>
+  </si>
+  <si>
+    <t>Можно ли передавать ФСН через операторов ЭДО?</t>
+  </si>
+  <si>
+    <t>Заполнение отчетности ФСН</t>
+  </si>
+  <si>
+    <t>Статус отчета "Отклонено"</t>
+  </si>
+  <si>
+    <t>Статус отчета ФСН "Отклонено"</t>
+  </si>
+  <si>
+    <t>Сдача отчетности ФСН</t>
+  </si>
+  <si>
+    <t>Формирование пакета отчетности в формате XBRL</t>
+  </si>
+  <si>
+    <t>не была получена квитанция</t>
+  </si>
+  <si>
+    <t>Сдать отчетность ФСН на бумаге</t>
+  </si>
+  <si>
+    <t>Полномочия для Респондентов ФСН</t>
+  </si>
+  <si>
+    <t>Альтернативный вариант заполнения формы ФСН</t>
+  </si>
+  <si>
+    <t>Методологические вопросы по отчетам ФСН</t>
+  </si>
+  <si>
+    <t>Приходит уведомление об истечении сертификата</t>
   </si>
 </sst>
 </file>
@@ -338,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +388,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -393,6 +438,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,6 +1537,110 @@
         <v>97</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="116">
   <si>
     <t>Вопросы (Развилка)</t>
   </si>
@@ -240,9 +240,6 @@
     <t>смена реквизитов и перевыпуск УКЭП?</t>
   </si>
   <si>
-    <t>Невозможно удалить файлы для увеличения квоты</t>
-  </si>
-  <si>
     <t>Удаление сообщений из раздела "Электронный документ"</t>
   </si>
   <si>
@@ -273,10 +270,6 @@
     <t>Подраздел «Общие сведения»</t>
   </si>
   <si>
-    <t xml:space="preserve"> Подраздел «Пользователи»
-</t>
-  </si>
-  <si>
     <t>добавление новых пользователей</t>
   </si>
   <si>
@@ -337,9 +330,6 @@
     <t>Статус отчета "Отклонено"</t>
   </si>
   <si>
-    <t>Статус отчета ФСН "Отклонено"</t>
-  </si>
-  <si>
     <t>Сдача отчетности ФСН</t>
   </si>
   <si>
@@ -362,6 +352,21 @@
   </si>
   <si>
     <t>Приходит уведомление об истечении сертификата</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подраздел «Пользователи»</t>
+  </si>
+  <si>
+    <t>Респонденты ФСН</t>
+  </si>
+  <si>
+    <t>Увеличение квоты - Невозможно удалить файлы для увеличения квоты?</t>
+  </si>
+  <si>
+    <t>Где в личном кабинете сдать отчетность ФСН?</t>
+  </si>
+  <si>
+    <t>Где можно найти шаблоны форм федерального статистического наблюдения?</t>
   </si>
 </sst>
 </file>
@@ -377,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,8 +397,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,12 +450,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -725,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,18 +802,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,23 +837,23 @@
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,23 +1045,23 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>77</v>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,23 +1269,23 @@
         <v>0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>62</v>
+      <c r="B66" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>63</v>
+      <c r="B67" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,23 +1413,23 @@
         <v>0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>48</v>
+      <c r="B84" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>82</v>
+      <c r="B85" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,15 +1437,15 @@
         <v>0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,31 +1453,31 @@
         <v>0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>86</v>
+      <c r="B89" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>87</v>
+      <c r="B90" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>88</v>
+      <c r="B91" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,39 +1549,39 @@
         <v>0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
-      <c r="B101" t="s">
-        <v>101</v>
+      <c r="B101" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>102</v>
+      <c r="B102" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
-      <c r="B103" t="s">
-        <v>103</v>
+      <c r="B103" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>105</v>
+      <c r="B104" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,15 +1589,15 @@
         <v>0</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
-      <c r="B106" t="s">
-        <v>104</v>
+      <c r="B106" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,23 +1605,23 @@
         <v>0</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
-      <c r="B108" t="s">
-        <v>108</v>
+      <c r="B108" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
-      <c r="B109" t="s">
-        <v>109</v>
+      <c r="B109" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,31 +1629,47 @@
         <v>0</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
-      <c r="B111" t="s">
-        <v>111</v>
+      <c r="B111" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
-      <c r="B112" t="s">
-        <v>112</v>
+      <c r="B112" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
-      <c r="B113" t="s">
-        <v>113</v>
+      <c r="B113" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/развилка.xlsx
+++ b/data/развилка.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19400" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -357,9 +357,6 @@
     <t xml:space="preserve"> Подраздел «Пользователи»</t>
   </si>
   <si>
-    <t>Респонденты ФСН</t>
-  </si>
-  <si>
     <t>Увеличение квоты - Невозможно удалить файлы для увеличения квоты?</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>Где можно найти шаблоны форм федерального статистического наблюдения?</t>
+  </si>
+  <si>
+    <t>ФСН</t>
   </si>
 </sst>
 </file>
@@ -742,17 +742,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -800,15 +800,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -872,7 +872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -888,7 +888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -896,7 +896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -920,7 +920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -936,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -952,7 +952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -960,7 +960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -976,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -984,7 +984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -1400,15 +1400,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -1656,20 +1656,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>0</v>
       </c>
       <c r="B114" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
